--- a/database/Groceries_onehousehold.xlsx
+++ b/database/Groceries_onehousehold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20204113\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA617E-B18D-4D02-BCBE-57FAA933C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A8E1D4-7FF2-41AA-AD92-99FDA6545A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" tabRatio="886" xr2:uid="{4E71E1FA-A8AE-4318-BBDF-23705C22ED6A}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="23040" windowHeight="12105" tabRatio="886" xr2:uid="{4E71E1FA-A8AE-4318-BBDF-23705C22ED6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Household 1m+1f rural" sheetId="8" r:id="rId1"/>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F0672-9542-43CA-A5F7-BAC81A9DBE8D}">
   <dimension ref="A1:O373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>129</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>128</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>70</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -3288,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>86</v>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>86</v>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>88</v>
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>63</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>80</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>59</v>
@@ -3899,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>83</v>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>79</v>
@@ -4134,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>58</v>
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
         <v>89</v>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>85</v>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
         <v>60</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>94</v>
@@ -4604,7 +4604,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>127</v>
@@ -4651,7 +4651,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>129</v>
@@ -4698,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>128</v>
@@ -4745,7 +4745,7 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>110</v>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>107</v>
@@ -4839,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>118</v>
@@ -4886,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>108</v>
@@ -4933,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>100</v>
@@ -4980,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>96</v>
@@ -5027,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>97</v>
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>101</v>
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>116</v>
@@ -5168,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>98</v>
@@ -5215,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>109</v>
@@ -5262,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>113</v>
@@ -5309,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>95</v>
@@ -5356,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>114</v>
@@ -5403,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>99</v>
@@ -5450,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>104</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>117</v>
@@ -5544,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>119</v>
@@ -5591,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>120</v>
@@ -5638,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>111</v>
@@ -5685,7 +5685,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
@@ -5732,7 +5732,7 @@
         <v>2</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>112</v>
@@ -5779,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>115</v>
@@ -5826,7 +5826,7 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>105</v>
@@ -5873,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>102</v>
@@ -5920,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>103</v>
@@ -5967,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>331</v>
@@ -6014,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>121</v>
@@ -6061,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>122</v>
@@ -6108,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>123</v>
@@ -6155,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="B90">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>124</v>
@@ -6202,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>125</v>
@@ -6249,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>126</v>
@@ -6296,7 +6296,7 @@
         <v>2</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>130</v>
@@ -6343,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
         <v>131</v>
@@ -6390,7 +6390,7 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
         <v>94</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="B96">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>157</v>
@@ -6484,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
         <v>128</v>
@@ -6531,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>153</v>
@@ -6578,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>150</v>
@@ -6625,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>151</v>
@@ -6672,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>140</v>
@@ -6719,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>141</v>
@@ -6766,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>154</v>
@@ -6813,7 +6813,7 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>154</v>
@@ -6860,7 +6860,7 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
         <v>139</v>
@@ -6907,7 +6907,7 @@
         <v>3</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>152</v>
@@ -6954,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>98</v>
@@ -7001,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
         <v>148</v>
@@ -7048,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
         <v>137</v>
@@ -7095,7 +7095,7 @@
         <v>3</v>
       </c>
       <c r="B110">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>138</v>
@@ -7142,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
         <v>149</v>
@@ -7189,7 +7189,7 @@
         <v>3</v>
       </c>
       <c r="B112">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
         <v>147</v>
@@ -7236,7 +7236,7 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>142</v>
@@ -7283,7 +7283,7 @@
         <v>3</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>143</v>
@@ -7330,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="B115">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
         <v>145</v>
@@ -7377,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
         <v>146</v>
@@ -7424,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="B117">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
         <v>144</v>
@@ -7471,7 +7471,7 @@
         <v>3</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
         <v>155</v>
@@ -7518,7 +7518,7 @@
         <v>3</v>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
         <v>43</v>
@@ -7565,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
         <v>45</v>
@@ -7612,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>103</v>
@@ -7659,7 +7659,7 @@
         <v>3</v>
       </c>
       <c r="B122">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>136</v>
@@ -7706,7 +7706,7 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
         <v>133</v>
@@ -7753,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
         <v>157</v>
@@ -7800,7 +7800,7 @@
         <v>3</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
         <v>156</v>
@@ -7847,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s">
         <v>157</v>
@@ -7894,7 +7894,7 @@
         <v>3</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
         <v>158</v>
@@ -7941,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="B128">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
@@ -7988,7 +7988,7 @@
         <v>3</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
         <v>159</v>
@@ -8035,7 +8035,7 @@
         <v>3</v>
       </c>
       <c r="B130">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
         <v>32</v>
@@ -8082,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
         <v>160</v>
@@ -8129,7 +8129,7 @@
         <v>3</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
         <v>170</v>
@@ -8176,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
         <v>170</v>
@@ -8223,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
         <v>179</v>
@@ -8270,7 +8270,7 @@
         <v>3</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
         <v>173</v>
@@ -8317,7 +8317,7 @@
         <v>3</v>
       </c>
       <c r="B136">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
         <v>164</v>
@@ -8364,7 +8364,7 @@
         <v>3</v>
       </c>
       <c r="B137">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
         <v>165</v>
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="B138">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>166</v>
@@ -8458,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="B139">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>168</v>
@@ -8505,7 +8505,7 @@
         <v>3</v>
       </c>
       <c r="B140">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
         <v>169</v>
@@ -8552,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="B141">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
         <v>184</v>
@@ -8599,7 +8599,7 @@
         <v>3</v>
       </c>
       <c r="B142">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
         <v>172</v>
@@ -8646,7 +8646,7 @@
         <v>3</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
         <v>162</v>
@@ -8693,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
         <v>174</v>
@@ -8740,7 +8740,7 @@
         <v>3</v>
       </c>
       <c r="B145">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
         <v>70</v>
@@ -8787,7 +8787,7 @@
         <v>3</v>
       </c>
       <c r="B146">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
         <v>167</v>
@@ -8834,7 +8834,7 @@
         <v>3</v>
       </c>
       <c r="B147">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
         <v>175</v>
@@ -8881,7 +8881,7 @@
         <v>3</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
         <v>171</v>
@@ -8928,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
         <v>171</v>
@@ -8975,7 +8975,7 @@
         <v>3</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
         <v>183</v>
@@ -9022,7 +9022,7 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
         <v>178</v>
@@ -9069,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
         <v>161</v>
@@ -9116,7 +9116,7 @@
         <v>3</v>
       </c>
       <c r="B153">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
         <v>176</v>
@@ -9163,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
         <v>181</v>
@@ -9210,7 +9210,7 @@
         <v>3</v>
       </c>
       <c r="B155">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
         <v>182</v>
@@ -9257,7 +9257,7 @@
         <v>3</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -9304,7 +9304,7 @@
         <v>3</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
         <v>180</v>
@@ -9351,7 +9351,7 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
         <v>19</v>
@@ -9398,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
         <v>177</v>
@@ -9445,7 +9445,7 @@
         <v>4</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
         <v>185</v>
@@ -9492,7 +9492,7 @@
         <v>4</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>5</v>
@@ -9539,7 +9539,7 @@
         <v>4</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C162" t="s">
         <v>10</v>
@@ -9586,7 +9586,7 @@
         <v>4</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -9633,7 +9633,7 @@
         <v>4</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
@@ -9680,7 +9680,7 @@
         <v>4</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C165" t="s">
         <v>24</v>
@@ -9727,7 +9727,7 @@
         <v>4</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
@@ -9774,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -9821,7 +9821,7 @@
         <v>4</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -9868,7 +9868,7 @@
         <v>4</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -9915,7 +9915,7 @@
         <v>4</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -9962,7 +9962,7 @@
         <v>4</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
@@ -10009,7 +10009,7 @@
         <v>4</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
         <v>20</v>
@@ -10103,7 +10103,7 @@
         <v>4</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
         <v>26</v>
@@ -10150,7 +10150,7 @@
         <v>4</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
@@ -10197,7 +10197,7 @@
         <v>4</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
         <v>25</v>
@@ -10244,7 +10244,7 @@
         <v>4</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -10291,7 +10291,7 @@
         <v>4</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -10338,7 +10338,7 @@
         <v>4</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
         <v>3</v>
@@ -10385,7 +10385,7 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
@@ -10432,7 +10432,7 @@
         <v>4</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -10479,7 +10479,7 @@
         <v>4</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C182" t="s">
         <v>31</v>
@@ -10526,7 +10526,7 @@
         <v>4</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C183" t="s">
         <v>18</v>
@@ -10573,7 +10573,7 @@
         <v>4</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -10620,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
@@ -10667,7 +10667,7 @@
         <v>4</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -10714,7 +10714,7 @@
         <v>4</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C187" t="s">
         <v>19</v>
@@ -10761,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C188" t="s">
         <v>21</v>
@@ -10808,7 +10808,7 @@
         <v>4</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
         <v>30</v>
@@ -10855,7 +10855,7 @@
         <v>4</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C190" t="s">
         <v>14</v>
@@ -10902,7 +10902,7 @@
         <v>4</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -10949,7 +10949,7 @@
         <v>4</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C192" t="s">
         <v>34</v>
@@ -10996,7 +10996,7 @@
         <v>4</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C193" t="s">
         <v>35</v>
@@ -11043,7 +11043,7 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C194" t="s">
         <v>32</v>
@@ -11090,7 +11090,7 @@
         <v>4</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C195" t="s">
         <v>33</v>
@@ -11137,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C196" t="s">
         <v>40</v>
@@ -11184,7 +11184,7 @@
         <v>4</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C197" t="s">
         <v>41</v>
@@ -11231,7 +11231,7 @@
         <v>4</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C198" t="s">
         <v>42</v>
@@ -11278,7 +11278,7 @@
         <v>4</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C199" t="s">
         <v>39</v>
@@ -11325,7 +11325,7 @@
         <v>4</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C200" t="s">
         <v>36</v>
@@ -11372,7 +11372,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C201" t="s">
         <v>37</v>
@@ -11419,7 +11419,7 @@
         <v>4</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
@@ -11466,7 +11466,7 @@
         <v>4</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C203" t="s">
         <v>452</v>
@@ -11513,7 +11513,7 @@
         <v>4</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C204" t="s">
         <v>90</v>
